--- a/medicine/Mort/Décès_en_1977/Décès_en_1977.xlsx
+++ b/medicine/Mort/Décès_en_1977/Décès_en_1977.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1977</t>
+          <t>Décès_en_1977</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1977</t>
+          <t>Décès_en_1977</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -526,7 +538,9 @@
           <t>Janvier</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>2 janvier : Erroll Garner, pianiste de jazz américain (° 15 juin 1921).
 4 janvier : Georges Folmer, peintre, sculpteur et théoricien de l'art français (° 19 novembre 1895).
@@ -573,7 +587,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1977</t>
+          <t>Décès_en_1977</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -591,7 +605,9 @@
           <t>Février</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1er février : Pierre de Lestrade de Conti, caricaturiste, illustrateur et peintre français (° 29 juin 1901).
 6 février : Hermann Felsner, footballeur devenu entraîneur autrichien (° 1er avril 1889).
@@ -607,7 +623,7 @@
 22 février : Ralph Hungerford, homme politique américain (° 21 avril 1896).
 23 février :
 Pierre-César Lagage, peintre français (° 29 septembre 1911).
-Pierre Parmentier, footballeur puis entraîneur français (° 16 juin 1907)[1].
+Pierre Parmentier, footballeur puis entraîneur français (° 16 juin 1907).
 26 février :
 Alpha Oumar Barry, homme politique guinéen (° 1925).
 Maxime Jacob, compositeur français (° 13 janvier 1906).
@@ -621,7 +637,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1977</t>
+          <t>Décès_en_1977</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -639,7 +655,9 @@
           <t>Mars</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2 mars : Paul Rohmer, père de la pédiatrie moderne française (° 1er novembre 1876).
 3 mars : Percy Marmont, acteur anglais (° 25 novembre 1883).
@@ -659,7 +677,7 @@
 Rutilio Grande, prêtre jésuite, Manuel Solórzano et Nelson Rutilio Lemus, laïcs chrétiens, tous trois martyrs et bienheureux.
 14 mars : Heraldo Bezerra, footballeur international espagnol (° 21 avril 1945).
 15 mars : Marg Moll, sculptrice, peintre de l'art abstrait et écrivaine allemande (º 2 août 1884).
-18 mars : Jacques Bohée, footballeur français (° 16 août 1929)[2].
+18 mars : Jacques Bohée, footballeur français (° 16 août 1929).
 20 mars : Roberto, footballeur international brésilien (º 20 juin 1912).
 23 mars : Émile Biayenda, cardinal congolais, archevêque de Brazzaville (° 1927).
 24 mars : Saburō Moroi, compositeur japonais (º 7 août 1903).
@@ -675,7 +693,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1977</t>
+          <t>Décès_en_1977</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -693,7 +711,9 @@
           <t>Avril</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1er avril : Jean-Baptiste Muratore, peintre français (° 6 septembre 1915).
 2 avril : Chamama Alasgarova, gynécologue azerbaïdjanaise (° 8 mars 1904).
@@ -733,7 +753,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1977</t>
+          <t>Décès_en_1977</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -751,7 +771,9 @@
           <t>Mai</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>mai : Raúl Chappell, footballeur international péruvien (° 23 juillet 1911).
 1er mai : Arne Sorensen, footballeur international danois (° 27 novembre 1917).
@@ -791,7 +813,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1977</t>
+          <t>Décès_en_1977</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -809,7 +831,9 @@
           <t>Juin</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>1er juin : Rudolf Vytlačil, footballeur international tchécoslovaque devenu entraîneur (° 9 février 1912).
 2 juin : Stephen Boyd, acteur britannique (° 4 juillet 1931).
@@ -853,7 +877,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1977</t>
+          <t>Décès_en_1977</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -871,7 +895,9 @@
           <t>Juillet</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>juillet :
 Paul Delmas-Marsalet, psychiatre et neurologue français († 4 août 1898).
@@ -907,7 +933,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1977</t>
+          <t>Décès_en_1977</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -925,7 +951,9 @@
           <t>Août</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>1er août : Francis Gary Powers, pilote avion d'espionnage U-2 américain (° 17 août 1929).
 3 août : Alfred Lunt, acteur américain (° 12 août 1892).
@@ -957,7 +985,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1977</t>
+          <t>Décès_en_1977</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -975,7 +1003,9 @@
           <t>Septembre</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>4 septembre : Jean Rostand, écrivain, moraliste, biologiste, historien des sciences et académicien français (° 30 octobre 1894).
 5 septembre : Marcel Thiry, écrivain belge d'expression française et militant wallon (° 13 mars 1897).
@@ -984,14 +1014,14 @@
 11 septembre :
 Leonard Carey, acteur anglais (° 25 février 1887).
 Tanaka Isson, peintre japonais (° 29 juillet 1908).
-12 septembre : Richard Nowacki, footballeur français (° 23 mars 1949)[3].
+12 septembre : Richard Nowacki, footballeur français (° 23 mars 1949).
 16 septembre :
 Marc Bolan, chanteur, guitariste, parolier et compositeur britannique, leader du groupe T. Rex (° 30 septembre 1947).
 Maria Callas, cantatrice d'opéra, américaine d'origine grecque (° 2 décembre 1923).
 18 septembre : Jaume Elias, footballeur espagnol (° 6 novembre 1919).
 20 septembre : Alex Massie, footballeur international écossais devenu entraîneur (° 13 mars 1906).
 21 septembre : Johan Einar Boström, arbitre international de football suédois (° 9 octobre 1922).
-23 septembre : Maurice Dupuis, footballeur international français (° 4 février 1914)[4].
+23 septembre : Maurice Dupuis, footballeur international français (° 4 février 1914).
 25 septembre : Gerhard Winkler, compositeur allemand de musique légère (° 12 septembre 1906).
 26 septembre : Aarne Ervi, architecte finlandais (° 19 mai 1910).
 30 septembre : Louis Duerloo, coureur cycliste belge (° 7 juillet 1910).</t>
@@ -1004,7 +1034,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1977</t>
+          <t>Décès_en_1977</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1022,7 +1052,9 @@
           <t>Octobre</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>1er octobre :
 Louis Berthomme Saint-André, peintre, lithographe et illustrateur français (° 4 février 1905).
@@ -1069,7 +1101,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1977</t>
+          <t>Décès_en_1977</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1087,7 +1119,9 @@
           <t>Novembre</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>1er novembre : Georges-Armand Masson, journaliste, écrivain et peintre français (° 29 mai 1892).
 3 novembre : Ottavio Pratesi, coureur cycliste italien (° 1er janvier 1889).
@@ -1108,7 +1142,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1977</t>
+          <t>Décès_en_1977</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1126,7 +1160,9 @@
           <t>Décembre</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>3 décembre : Roland Caillaux, peintre  et dessinateur français (° 5 janvier 1905).
 5 décembre : Roland Kirk, saxophoniste de jazz américain (° 7 août 1935).
@@ -1155,7 +1191,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1977</t>
+          <t>Décès_en_1977</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1173,7 +1209,9 @@
           <t>Date précise inconnue</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>France Audoul, peintre et résistante française (° 13 septembre 1894).
 Henri Barthelemy, illustrateur français (° 1884).
